--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_05_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_05_end.xlsx
@@ -44,7 +44,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">After beating Utage, she explains her ridiculous reasoning for the attack. Gavial finds Inam’s description of Tomimi somewhat moving.
+    <t xml:space="preserve">After beating Utage, she explains her ridiculous reasoning for the attack. Gavial finds Inam's description of Tomimi somewhat moving.
 </t>
   </si>
   <si>
